--- a/1coordinatesTest.xlsx
+++ b/1coordinatesTest.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Filip</t>
   </si>
@@ -32,6 +31,9 @@
   </si>
   <si>
     <t>Alan</t>
+  </si>
+  <si>
+    <t>Second</t>
   </si>
 </sst>
 </file>
@@ -370,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +418,14 @@
       </c>
       <c r="B5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
